--- a/biology/Botanique/Dracophyllum/Dracophyllum.xlsx
+++ b/biology/Botanique/Dracophyllum/Dracophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dracophyllum est un genre de plantes à fleurs de la famille des Ericaceae. Il comprend plus de cinquante espèces d'arbustes originaires d'Australie, de Nouvelle-Calédonie, de Nouvelle-Zélande et de quelques autres îles de l'Océanie. Dracophyllum verticillatum est l'espèce type.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes dressés ou plus ou moins prostrés, plus rarement de petits arbres ; leur port est buissonnant ou candélabriforme. Les feuilles engainantes sont concentrées au sommet des axes, très coriaces ; les nervures sont parallèles, sans côte médiane ; la marge est souvent finement dentée. 
-Les fleurs sont hermaphrodites, pédicellées sur des inflorescences terminales au sommet des tiges. Il y a cinq sépales et cing pétales, formant une corolle avec des lobes récurvés vers l'extérieur. Les fruits sont des capsules déhiscentes, contenant plusieurs graines[1].
+Les fleurs sont hermaphrodites, pédicellées sur des inflorescences terminales au sommet des tiges. Il y a cinq sépales et cing pétales, formant une corolle avec des lobes récurvés vers l'extérieur. Les fruits sont des capsules déhiscentes, contenant plusieurs graines.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 juin 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 juin 2021) :
 Dracophyllum acerosum Berggr.
 Dracophyllum adamsii Petrie
 Dracophyllum alticola Däniker
@@ -642,11 +658,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1800 par le botaniste français Jacques-Julien Houtou de La Billardière, qui le baptise Dracophyllum, pour l'espèce type Dracophyllum verticillatum, endémique de Nouvelle-Calédonie, dans son ouvrage Relation du Voyage à la Recherche de la Pérouse[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1800 par le botaniste français Jacques-Julien Houtou de La Billardière, qui le baptise Dracophyllum, pour l'espèce type Dracophyllum verticillatum, endémique de Nouvelle-Calédonie, dans son ouvrage Relation du Voyage à la Recherche de la Pérouse :
 « Parmi les végétaux particuliers au sommet de ces montagnes, plusieurs semblent s'accomoder parfaitement de la grande agitation de l'air qu'ils y éprouvent. Je vais donner la description d'un des plus remarquables ; il forme un nouveau genre que je désigne sous le nom de dracophyllum. »
-Ce genre a été transféré de la famille des Epacridaceae, désormais non reconnue, dans celle des Ericaceae[1].
+Ce genre a été transféré de la famille des Epacridaceae, désormais non reconnue, dans celle des Ericaceae.
 </t>
         </is>
       </c>
